--- a/data/trans_bre/DC-Edad-trans_bre.xlsx
+++ b/data/trans_bre/DC-Edad-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>11,36; 18,89</t>
+          <t>10,94; 18,59</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,37; 14,15</t>
+          <t>6,5; 14,31</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,7; 11,03</t>
+          <t>4,64; 10,7</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,98; 24,04</t>
+          <t>8,31; 24,11</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>227,41; 748,23</t>
+          <t>217,34; 782,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>115,58; 611,65</t>
+          <t>114,94; 590,31</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>161,0; 1607,47</t>
+          <t>179,36; 1608,99</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>59,06; 521,0</t>
+          <t>61,37; 527,84</t>
         </is>
       </c>
     </row>
@@ -768,7 +768,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,94; 13,65</t>
+          <t>5,78; 13,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -778,32 +778,32 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,61; 10,78</t>
+          <t>4,56; 10,67</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>13,0; 27,66</t>
+          <t>12,35; 27,43</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>61,33; 199,07</t>
+          <t>57,2; 185,12</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>44,92; 222,82</t>
+          <t>45,32; 220,1</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>91,72; 453,95</t>
+          <t>80,03; 449,22</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>95,33; 360,72</t>
+          <t>97,42; 363,77</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 6,43</t>
+          <t>-1,7; 6,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,61; 11,54</t>
+          <t>4,76; 11,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,29; 7,68</t>
+          <t>1,37; 7,59</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,91; 19,22</t>
+          <t>8,93; 19,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,67; 50,48</t>
+          <t>-9,37; 50,93</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>54,11; 208,23</t>
+          <t>57,04; 193,73</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>15,5; 144,95</t>
+          <t>14,13; 156,06</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>54,64; 156,65</t>
+          <t>54,94; 162,79</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 7,83</t>
+          <t>-1,87; 8,32</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,17; 11,99</t>
+          <t>4,34; 12,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,48; 8,65</t>
+          <t>1,19; 8,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,33; 20,46</t>
+          <t>9,28; 19,83</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-10,71; 44,58</t>
+          <t>-9,53; 50,87</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>37,79; 156,77</t>
+          <t>36,74; 165,05</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>14,13; 120,03</t>
+          <t>10,5; 123,26</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>36,79; 109,74</t>
+          <t>35,67; 104,51</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,57; 5,76</t>
+          <t>-6,58; 6,07</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,12; 17,86</t>
+          <t>6,79; 18,33</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,9; 12,69</t>
+          <t>2,23; 12,64</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>9,83; 18,94</t>
+          <t>9,77; 18,98</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-21,83; 21,95</t>
+          <t>-20,53; 23,36</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>46,04; 164,56</t>
+          <t>45,17; 173,17</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>16,9; 106,49</t>
+          <t>11,91; 112,33</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>30,58; 70,42</t>
+          <t>29,94; 70,72</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,14; 10,92</t>
+          <t>0,25; 11,44</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,43; 17,49</t>
+          <t>7,7; 17,89</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,58; 9,2</t>
+          <t>0,4; 9,25</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>17,17; 36,2</t>
+          <t>17,08; 36,74</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,4; 39,55</t>
+          <t>0,78; 42,81</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>30,52; 93,46</t>
+          <t>31,74; 97,6</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,37; 61,87</t>
+          <t>1,9; 61,68</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>47,23; 110,86</t>
+          <t>47,27; 117,86</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,1; 8,98</t>
+          <t>4,81; 8,74</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>8,63; 11,85</t>
+          <t>8,63; 12,07</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,78; 7,97</t>
+          <t>4,89; 8,1</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>15,63; 24,49</t>
+          <t>15,59; 24,32</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>28,75; 57,15</t>
+          <t>27,46; 55,47</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>81,66; 132,83</t>
+          <t>82,43; 133,27</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>51,68; 100,78</t>
+          <t>51,36; 102,5</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>69,03; 116,41</t>
+          <t>67,76; 112,79</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/DC-Edad-trans_bre.xlsx
+++ b/data/trans_bre/DC-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,94; 18,59</t>
+          <t>11,15; 18,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,5; 14,31</t>
+          <t>6,38; 14,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,64; 10,7</t>
+          <t>4,52; 10,89</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>217,34; 782,33</t>
+          <t>215,55; 749,8</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>114,94; 590,31</t>
+          <t>116,5; 584,54</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>179,36; 1608,99</t>
+          <t>174,97; 1610,32</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,78; 13,12</t>
+          <t>5,66; 13,28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,26; 9,75</t>
+          <t>3,33; 9,97</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,56; 10,67</t>
+          <t>4,59; 10,78</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>57,2; 185,12</t>
+          <t>55,92; 190,47</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>45,32; 220,1</t>
+          <t>47,45; 224,7</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>80,03; 449,22</t>
+          <t>83,72; 463,84</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 6,24</t>
+          <t>-1,68; 6,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,76; 11,37</t>
+          <t>4,74; 11,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,37; 7,59</t>
+          <t>1,6; 7,75</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,37; 50,93</t>
+          <t>-9,72; 51,74</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>57,04; 193,73</t>
+          <t>52,46; 193,45</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>14,13; 156,06</t>
+          <t>20,45; 155,61</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 8,32</t>
+          <t>-2,27; 8,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,34; 12,49</t>
+          <t>4,12; 11,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,19; 8,7</t>
+          <t>1,72; 8,89</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-9,53; 50,87</t>
+          <t>-9,56; 45,92</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>36,74; 165,05</t>
+          <t>36,36; 156,45</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,5; 123,26</t>
+          <t>15,13; 127,15</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,58; 6,07</t>
+          <t>-6,56; 6,23</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,79; 18,33</t>
+          <t>7,72; 18,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,23; 12,64</t>
+          <t>2,66; 12,18</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-20,53; 23,36</t>
+          <t>-20,29; 24,31</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>45,17; 173,17</t>
+          <t>49,55; 169,58</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>11,91; 112,33</t>
+          <t>16,27; 106,31</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,25; 11,44</t>
+          <t>0,08; 11,16</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,7; 17,89</t>
+          <t>7,7; 17,72</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,4; 9,25</t>
+          <t>0,67; 9,31</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,78; 42,81</t>
+          <t>0,6; 42,06</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>31,74; 97,6</t>
+          <t>30,71; 95,44</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,9; 61,68</t>
+          <t>3,45; 61,79</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1268,17 +1268,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,81; 8,74</t>
+          <t>4,89; 8,9</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>8,63; 12,07</t>
+          <t>8,64; 12,07</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,89; 8,1</t>
+          <t>4,88; 8,32</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1288,17 +1288,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>27,46; 55,47</t>
+          <t>27,87; 56,53</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>82,43; 133,27</t>
+          <t>80,68; 131,54</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>51,36; 102,5</t>
+          <t>52,3; 102,51</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">

--- a/data/trans_bre/DC-Edad-trans_bre.xlsx
+++ b/data/trans_bre/DC-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>11,15; 18,42</t>
+          <t>11,36; 18,89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,38; 14,15</t>
+          <t>6,37; 14,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,52; 10,89</t>
+          <t>4,7; 11,03</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,31; 24,11</t>
+          <t>7,98; 24,04</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>215,55; 749,8</t>
+          <t>227,41; 748,23</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>116,5; 584,54</t>
+          <t>115,58; 611,65</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>174,97; 1610,32</t>
+          <t>161,0; 1607,47</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>61,37; 527,84</t>
+          <t>59,06; 521,0</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,66; 13,28</t>
+          <t>5,94; 13,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,33; 9,97</t>
+          <t>3,26; 9,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,59; 10,78</t>
+          <t>4,61; 10,78</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,35; 27,43</t>
+          <t>13,0; 27,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>55,92; 190,47</t>
+          <t>61,33; 199,07</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>47,45; 224,7</t>
+          <t>44,92; 222,82</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>83,72; 463,84</t>
+          <t>91,72; 453,95</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>97,42; 363,77</t>
+          <t>95,33; 360,72</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 6,48</t>
+          <t>-1,26; 6,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,74; 11,11</t>
+          <t>4,61; 11,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,6; 7,75</t>
+          <t>1,29; 7,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,93; 19,17</t>
+          <t>8,91; 19,22</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,72; 51,74</t>
+          <t>-7,67; 50,48</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>52,46; 193,45</t>
+          <t>54,11; 208,23</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>20,45; 155,61</t>
+          <t>15,5; 144,95</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>54,94; 162,79</t>
+          <t>54,64; 156,65</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 8,06</t>
+          <t>-2,46; 7,83</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,12; 11,88</t>
+          <t>4,17; 11,99</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,72; 8,89</t>
+          <t>1,48; 8,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,28; 19,83</t>
+          <t>9,33; 20,46</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-9,56; 45,92</t>
+          <t>-10,71; 44,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>36,36; 156,45</t>
+          <t>37,79; 156,77</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>15,13; 127,15</t>
+          <t>14,13; 120,03</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>35,67; 104,51</t>
+          <t>36,79; 109,74</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,56; 6,23</t>
+          <t>-7,57; 5,76</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,72; 18,47</t>
+          <t>7,12; 17,86</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,66; 12,18</t>
+          <t>2,9; 12,69</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>9,77; 18,98</t>
+          <t>9,83; 18,94</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-20,29; 24,31</t>
+          <t>-21,83; 21,95</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>49,55; 169,58</t>
+          <t>46,04; 164,56</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>16,27; 106,31</t>
+          <t>16,9; 106,49</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>29,94; 70,72</t>
+          <t>30,58; 70,42</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,08; 11,16</t>
+          <t>0,14; 10,92</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,7; 17,72</t>
+          <t>7,43; 17,49</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,67; 9,31</t>
+          <t>0,58; 9,2</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>17,08; 36,74</t>
+          <t>17,17; 36,2</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,6; 42,06</t>
+          <t>0,4; 39,55</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>30,71; 95,44</t>
+          <t>30,52; 93,46</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3,45; 61,79</t>
+          <t>2,37; 61,87</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>47,27; 117,86</t>
+          <t>47,23; 110,86</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,89; 8,9</t>
+          <t>5,1; 8,98</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>8,64; 12,07</t>
+          <t>8,63; 11,85</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,88; 8,32</t>
+          <t>4,78; 7,97</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>15,59; 24,32</t>
+          <t>15,63; 24,49</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>27,87; 56,53</t>
+          <t>28,75; 57,15</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>80,68; 131,54</t>
+          <t>81,66; 132,83</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>52,3; 102,51</t>
+          <t>51,68; 100,78</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>67,76; 112,79</t>
+          <t>69,03; 116,41</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/DC-Edad-trans_bre.xlsx
+++ b/data/trans_bre/DC-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>14,73</t>
+          <t>16,91</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>10,05</t>
+          <t>11,89</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,39</t>
+          <t>8,38</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>16,03</t>
+          <t>16,33</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>418,32%</t>
+          <t>397,84%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>280,1%</t>
+          <t>312,88%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>505,56%</t>
+          <t>573,52%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>211,5%</t>
+          <t>208,75%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>11,36; 18,89</t>
+          <t>13,09; 21,02</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,37; 14,15</t>
+          <t>8,13; 16,47</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,7; 11,03</t>
+          <t>5,54; 12,07</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,98; 24,04</t>
+          <t>7,97; 24,38</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>227,41; 748,23</t>
+          <t>217,17; 720,71</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>115,58; 611,65</t>
+          <t>140,29; 664,75</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>161,0; 1607,47</t>
+          <t>196,12; 1818,48</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>59,06; 521,0</t>
+          <t>57,48; 506,62</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>9,64</t>
+          <t>16,05</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,41</t>
+          <t>8,87</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,47</t>
+          <t>9,88</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>18,8</t>
+          <t>26,67</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>115,69%</t>
+          <t>184,03%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>116,86%</t>
+          <t>154,25%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>214,09%</t>
+          <t>267,23%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>189,32%</t>
+          <t>268,05%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,94; 13,65</t>
+          <t>11,99; 20,58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,26; 9,75</t>
+          <t>5,59; 12,74</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,61; 10,78</t>
+          <t>6,78; 13,39</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>13,0; 27,66</t>
+          <t>15,21; 52,91</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>61,33; 199,07</t>
+          <t>114,35; 289,63</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>44,92; 222,82</t>
+          <t>76,57; 279,49</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>91,72; 453,95</t>
+          <t>133,66; 544,1</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>95,33; 360,72</t>
+          <t>125,85; 698,83</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,46</t>
+          <t>7,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,88</t>
+          <t>12,74</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,59</t>
+          <t>5,17</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>14,66</t>
+          <t>13,49</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>16,88%</t>
+          <t>45,13%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>112,67%</t>
+          <t>170,87%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>73,68%</t>
+          <t>73,08%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>102,45%</t>
+          <t>92,98%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 6,43</t>
+          <t>2,87; 11,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,61; 11,54</t>
+          <t>8,71; 16,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,29; 7,68</t>
+          <t>1,99; 8,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,91; 19,22</t>
+          <t>5,09; 18,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,67; 50,48</t>
+          <t>15,71; 84,04</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>54,11; 208,23</t>
+          <t>96,84; 285,16</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>15,5; 144,95</t>
+          <t>22,66; 142,59</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>54,64; 156,65</t>
+          <t>34,05; 147,18</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,88</t>
+          <t>6,62</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,05</t>
+          <t>11,1</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,15</t>
+          <t>7,15</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>14,36</t>
+          <t>18,29</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>14,48%</t>
+          <t>31,5%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>86,48%</t>
+          <t>112,91%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>59,42%</t>
+          <t>73,07%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>63,94%</t>
+          <t>105,9%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 7,83</t>
+          <t>1,17; 11,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,17; 11,99</t>
+          <t>6,86; 15,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,48; 8,65</t>
+          <t>3,18; 10,63</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,33; 20,46</t>
+          <t>9,58; 28,91</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-10,71; 44,58</t>
+          <t>3,8; 62,48</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>37,79; 156,77</t>
+          <t>56,76; 188,6</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>14,13; 120,03</t>
+          <t>26,78; 132,92</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>36,79; 109,74</t>
+          <t>38,88; 328,34</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,17</t>
+          <t>-1,19</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>12,83</t>
+          <t>15,68</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>7,32</t>
+          <t>9,65</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>14,33</t>
+          <t>14,2</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,57%</t>
+          <t>-3,74%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>98,15%</t>
+          <t>117,64%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>53,12%</t>
+          <t>63,76%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>48,23%</t>
+          <t>47,69%</t>
         </is>
       </c>
     </row>
@@ -1068,49 +1068,49 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,57; 5,76</t>
+          <t>-8,57; 4,71</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,12; 17,86</t>
+          <t>10,11; 21,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,9; 12,69</t>
+          <t>4,41; 15,45</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>9,83; 18,94</t>
+          <t>9,81; 18,8</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-21,83; 21,95</t>
+          <t>-23,5; 16,03</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>46,04; 164,56</t>
+          <t>63,36; 191,11</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>16,9; 106,49</t>
+          <t>22,9; 119,43</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>30,58; 70,42</t>
+          <t>30,34; 69,64</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>5,67</t>
+          <t>13,92</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>12,91</t>
+          <t>13,61</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>4,91</t>
+          <t>8,56</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>23,79</t>
+          <t>35,52</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>18,84%</t>
+          <t>50,96%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>60,0%</t>
+          <t>65,13%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>28,27%</t>
+          <t>54,63%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>67,85%</t>
+          <t>119,24%</t>
         </is>
       </c>
     </row>
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,14; 10,92</t>
+          <t>6,32; 20,33</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,43; 17,49</t>
+          <t>6,69; 20,98</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,58; 9,2</t>
+          <t>2,19; 14,06</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>17,17; 36,2</t>
+          <t>16,44; 58,04</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,4; 39,55</t>
+          <t>19,23; 88,45</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>30,52; 93,46</t>
+          <t>25,97; 126,61</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,37; 61,87</t>
+          <t>11,08; 110,75</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>47,23; 110,86</t>
+          <t>53,59; 216,89</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>6,98</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>10,32</t>
+          <t>17,21</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>6,49</t>
+          <t>9,78</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>18,56</t>
+          <t>17,57</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>42,46%</t>
+          <t>1,46%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>105,49%</t>
+          <t>66,84%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>75,26%</t>
+          <t>43,01%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>85,32%</t>
+          <t>42,32%</t>
         </is>
       </c>
     </row>
@@ -1268,54 +1268,154 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,1; 8,98</t>
+          <t>-7,59; 9,21</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>8,63; 11,85</t>
+          <t>8,68; 24,1</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,78; 7,97</t>
+          <t>2,56; 16,42</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>15,63; 24,49</t>
+          <t>11,75; 22,89</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>28,75; 57,15</t>
+          <t>-18,27; 29,58</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>81,66; 132,83</t>
+          <t>26,84; 112,03</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>51,68; 100,78</t>
+          <t>8,79; 83,12</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>69,03; 116,41</t>
+          <t>25,95; 60,81</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>10,35</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>13,5</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>8,89</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>22,16</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>59,13%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>130,59%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>93,85%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>109,71%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>8,42; 12,36</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>11,67; 15,2</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>7,18; 10,59</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>16,89; 33,62</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>45,86; 73,8</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>104,6; 158,77</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>69,92; 122,32</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>79,46; 196,81</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1325,6 +1425,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/DC-Edad-trans_bre.xlsx
+++ b/data/trans_bre/DC-Edad-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>13,09; 21,02</t>
+          <t>12,99; 21,05</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,13; 16,47</t>
+          <t>8,33; 16,44</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,54; 12,07</t>
+          <t>5,6; 11,74</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,97; 24,38</t>
+          <t>8,33; 24,3</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>217,17; 720,71</t>
+          <t>225,32; 708,6</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>140,29; 664,75</t>
+          <t>150,71; 622,52</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>196,12; 1818,48</t>
+          <t>184,87; 1877,73</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>57,48; 506,62</t>
+          <t>65,49; 516,42</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,99; 20,58</t>
+          <t>11,96; 19,83</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,59; 12,74</t>
+          <t>5,4; 12,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,78; 13,39</t>
+          <t>6,66; 13,46</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>15,21; 52,91</t>
+          <t>14,64; 51,15</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>114,35; 289,63</t>
+          <t>113,79; 276,35</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>76,57; 279,49</t>
+          <t>70,88; 278,3</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>133,66; 544,1</t>
+          <t>126,22; 541,56</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>125,85; 698,83</t>
+          <t>122,04; 647,52</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,87; 11,41</t>
+          <t>2,84; 11,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,71; 16,69</t>
+          <t>9,11; 16,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,99; 8,4</t>
+          <t>1,86; 8,48</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,09; 18,42</t>
+          <t>6,29; 18,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>15,71; 84,04</t>
+          <t>15,2; 82,03</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>96,84; 285,16</t>
+          <t>95,61; 267,51</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>22,66; 142,59</t>
+          <t>19,92; 152,71</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>34,05; 147,18</t>
+          <t>40,9; 148,55</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,17; 11,62</t>
+          <t>1,02; 11,66</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,86; 15,6</t>
+          <t>6,92; 15,32</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,18; 10,63</t>
+          <t>3,13; 11,07</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,58; 28,91</t>
+          <t>9,95; 30,44</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,8; 62,48</t>
+          <t>3,98; 61,88</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>56,76; 188,6</t>
+          <t>56,61; 187,05</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>26,78; 132,92</t>
+          <t>26,53; 139,22</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>38,88; 328,34</t>
+          <t>42,08; 401,23</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,57; 4,71</t>
+          <t>-7,85; 4,95</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>10,11; 21,06</t>
+          <t>10,15; 21,11</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,41; 15,45</t>
+          <t>4,35; 15,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>9,81; 18,8</t>
+          <t>9,67; 18,98</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-23,5; 16,03</t>
+          <t>-21,83; 16,97</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>63,36; 191,11</t>
+          <t>65,54; 190,05</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>22,9; 119,43</t>
+          <t>24,28; 122,37</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>30,34; 69,64</t>
+          <t>30,67; 73,24</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,32; 20,33</t>
+          <t>6,83; 20,26</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,69; 20,98</t>
+          <t>6,46; 20,35</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,19; 14,06</t>
+          <t>2,98; 14,35</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>16,44; 58,04</t>
+          <t>16,23; 58,06</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>19,23; 88,45</t>
+          <t>20,51; 84,99</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>25,97; 126,61</t>
+          <t>23,7; 115,91</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>11,08; 110,75</t>
+          <t>15,32; 108,51</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>53,59; 216,89</t>
+          <t>52,71; 219,93</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,59; 9,21</t>
+          <t>-8,11; 8,58</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>8,68; 24,1</t>
+          <t>9,02; 24,45</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,56; 16,42</t>
+          <t>2,69; 16,87</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>11,75; 22,89</t>
+          <t>12,23; 23,79</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-18,27; 29,58</t>
+          <t>-19,21; 27,85</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>26,84; 112,03</t>
+          <t>29,45; 115,41</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>8,79; 83,12</t>
+          <t>9,7; 90,6</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>25,95; 60,81</t>
+          <t>27,09; 64,25</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>8,42; 12,36</t>
+          <t>8,35; 12,38</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>11,67; 15,2</t>
+          <t>11,66; 15,19</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>7,18; 10,59</t>
+          <t>7,15; 10,48</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>16,89; 33,62</t>
+          <t>16,76; 32,93</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>45,86; 73,8</t>
+          <t>45,37; 75,35</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>104,6; 158,77</t>
+          <t>103,9; 159,46</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>69,92; 122,32</t>
+          <t>70,34; 121,69</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>79,46; 196,81</t>
+          <t>76,87; 186,06</t>
         </is>
       </c>
     </row>
